--- a/put_price.xlsx
+++ b/put_price.xlsx
@@ -433,19 +433,19 @@
         <v>59</v>
       </c>
       <c r="C2">
-        <v>7.340238307537692</v>
+        <v>7.414760605496166</v>
       </c>
       <c r="D2">
-        <v>-0.4248585357317198</v>
+        <v>-0.428427008503716</v>
       </c>
       <c r="E2">
-        <v>0.02038437169451834</v>
+        <v>0.02047892419324069</v>
       </c>
       <c r="F2">
-        <v>-0.1750666737620835</v>
+        <v>-0.1748758950205899</v>
       </c>
       <c r="G2">
-        <v>0.06874171328066679</v>
+        <v>0.06865492923787776</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -456,19 +456,19 @@
         <v>34</v>
       </c>
       <c r="C3">
-        <v>6.9717523155569</v>
+        <v>7.011889289107426</v>
       </c>
       <c r="D3">
-        <v>-0.4041131562911003</v>
+        <v>-0.4063362161889151</v>
       </c>
       <c r="E3">
-        <v>0.02240009691252922</v>
+        <v>0.02249708712145954</v>
       </c>
       <c r="F3">
-        <v>-0.1546911035700477</v>
+        <v>-0.1544612445195585</v>
       </c>
       <c r="G3">
-        <v>0.0385320077569714</v>
+        <v>0.03847154283715976</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -479,19 +479,19 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>4.232916674044739</v>
+        <v>4.271066528615904</v>
       </c>
       <c r="D4">
-        <v>-0.4330468066415776</v>
+        <v>-0.4363281669261106</v>
       </c>
       <c r="E4">
-        <v>0.03730529199861755</v>
+        <v>0.0374667070787635</v>
       </c>
       <c r="F4">
-        <v>-0.09628494912935108</v>
+        <v>-0.09614823561814351</v>
       </c>
       <c r="G4">
-        <v>0.03467321501522292</v>
+        <v>0.03461865071138323</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -502,19 +502,19 @@
         <v>84</v>
       </c>
       <c r="C5">
-        <v>4.837993808807219</v>
+        <v>4.950898710841294</v>
       </c>
       <c r="D5">
-        <v>-0.4510901232074829</v>
+        <v>-0.4587167117810518</v>
       </c>
       <c r="E5">
-        <v>0.03064705778899809</v>
+        <v>0.030804575247469</v>
       </c>
       <c r="F5">
-        <v>-0.1213638243060301</v>
+        <v>-0.1213511641629582</v>
       </c>
       <c r="G5">
-        <v>0.09871083910984239</v>
+        <v>0.09863522735983851</v>
       </c>
     </row>
   </sheetData>
